--- a/template-engine/src/main/resources/template.xlsx
+++ b/template-engine/src/main/resources/template.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="T" sheetId="1" r:id="rId1"/>
@@ -796,7 +796,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="26">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -1010,30 +1010,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color auto="1"/>
       </left>
@@ -1119,7 +1095,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="214">
+  <cellXfs count="212">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1558,32 +1534,20 @@
     <xf numFmtId="3" fontId="12" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="170" fontId="27" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="24" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="13" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="26" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="3" fontId="10" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="15" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1597,19 +1561,46 @@
     <xf numFmtId="3" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="13" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="170" fontId="27" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="24" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="10" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="26" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="32" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1618,35 +1609,14 @@
     <xf numFmtId="0" fontId="33" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="31" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="13" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="31" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2193,7 +2163,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE1000"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="A94" sqref="A94"/>
     </sheetView>
   </sheetViews>
@@ -2414,23 +2384,23 @@
       <c r="AE6" s="3"/>
     </row>
     <row r="7" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="184"/>
-      <c r="B7" s="184"/>
-      <c r="C7" s="184"/>
-      <c r="D7" s="184"/>
-      <c r="E7" s="184"/>
-      <c r="F7" s="184"/>
-      <c r="G7" s="184"/>
-      <c r="H7" s="184"/>
-      <c r="I7" s="184"/>
-      <c r="J7" s="184"/>
-      <c r="K7" s="184"/>
-      <c r="L7" s="184"/>
-      <c r="M7" s="184"/>
-      <c r="N7" s="184"/>
-      <c r="O7" s="184"/>
-      <c r="P7" s="184"/>
-      <c r="Q7" s="184"/>
+      <c r="A7" s="200"/>
+      <c r="B7" s="200"/>
+      <c r="C7" s="200"/>
+      <c r="D7" s="200"/>
+      <c r="E7" s="200"/>
+      <c r="F7" s="200"/>
+      <c r="G7" s="200"/>
+      <c r="H7" s="200"/>
+      <c r="I7" s="200"/>
+      <c r="J7" s="200"/>
+      <c r="K7" s="200"/>
+      <c r="L7" s="200"/>
+      <c r="M7" s="200"/>
+      <c r="N7" s="200"/>
+      <c r="O7" s="200"/>
+      <c r="P7" s="200"/>
+      <c r="Q7" s="200"/>
       <c r="R7" s="3"/>
       <c r="S7" s="3"/>
       <c r="T7" s="3"/>
@@ -2447,23 +2417,23 @@
       <c r="AE7" s="3"/>
     </row>
     <row r="8" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="185"/>
-      <c r="B8" s="185"/>
-      <c r="C8" s="185"/>
-      <c r="D8" s="185"/>
-      <c r="E8" s="185"/>
-      <c r="F8" s="185"/>
-      <c r="G8" s="185"/>
-      <c r="H8" s="185"/>
-      <c r="I8" s="185"/>
-      <c r="J8" s="185"/>
-      <c r="K8" s="185"/>
-      <c r="L8" s="185"/>
-      <c r="M8" s="185"/>
-      <c r="N8" s="185"/>
-      <c r="O8" s="185"/>
-      <c r="P8" s="185"/>
-      <c r="Q8" s="185"/>
+      <c r="A8" s="201"/>
+      <c r="B8" s="201"/>
+      <c r="C8" s="201"/>
+      <c r="D8" s="201"/>
+      <c r="E8" s="201"/>
+      <c r="F8" s="201"/>
+      <c r="G8" s="201"/>
+      <c r="H8" s="201"/>
+      <c r="I8" s="201"/>
+      <c r="J8" s="201"/>
+      <c r="K8" s="201"/>
+      <c r="L8" s="201"/>
+      <c r="M8" s="201"/>
+      <c r="N8" s="201"/>
+      <c r="O8" s="201"/>
+      <c r="P8" s="201"/>
+      <c r="Q8" s="201"/>
       <c r="R8" s="3"/>
       <c r="S8" s="3"/>
       <c r="T8" s="3"/>
@@ -2480,18 +2450,18 @@
       <c r="AE8" s="3"/>
     </row>
     <row r="9" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="185"/>
-      <c r="B9" s="185"/>
-      <c r="C9" s="185"/>
-      <c r="D9" s="185"/>
-      <c r="E9" s="185"/>
-      <c r="F9" s="185"/>
-      <c r="G9" s="185"/>
-      <c r="H9" s="185"/>
-      <c r="I9" s="185"/>
-      <c r="J9" s="185"/>
-      <c r="K9" s="185"/>
-      <c r="L9" s="185"/>
+      <c r="A9" s="201"/>
+      <c r="B9" s="201"/>
+      <c r="C9" s="201"/>
+      <c r="D9" s="201"/>
+      <c r="E9" s="201"/>
+      <c r="F9" s="201"/>
+      <c r="G9" s="201"/>
+      <c r="H9" s="201"/>
+      <c r="I9" s="201"/>
+      <c r="J9" s="201"/>
+      <c r="K9" s="201"/>
+      <c r="L9" s="201"/>
       <c r="M9" s="6"/>
       <c r="N9" s="6"/>
       <c r="O9" s="7"/>
@@ -2679,25 +2649,25 @@
       <c r="V14" s="3"/>
       <c r="W14" s="3"/>
       <c r="X14" s="3"/>
-      <c r="Y14" s="186" t="s">
+      <c r="Y14" s="199" t="s">
         <v>5</v>
       </c>
-      <c r="Z14" s="186" t="s">
+      <c r="Z14" s="199" t="s">
         <v>6</v>
       </c>
-      <c r="AA14" s="186" t="s">
+      <c r="AA14" s="199" t="s">
         <v>7</v>
       </c>
-      <c r="AB14" s="186" t="s">
+      <c r="AB14" s="199" t="s">
         <v>8</v>
       </c>
-      <c r="AC14" s="186" t="s">
+      <c r="AC14" s="199" t="s">
         <v>9</v>
       </c>
-      <c r="AD14" s="186" t="s">
+      <c r="AD14" s="199" t="s">
         <v>10</v>
       </c>
-      <c r="AE14" s="186" t="s">
+      <c r="AE14" s="199" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2728,29 +2698,29 @@
       <c r="V15" s="3"/>
       <c r="W15" s="3"/>
       <c r="X15" s="3"/>
-      <c r="Y15" s="186"/>
-      <c r="Z15" s="186"/>
-      <c r="AA15" s="186"/>
-      <c r="AB15" s="186"/>
-      <c r="AC15" s="186"/>
-      <c r="AD15" s="186"/>
-      <c r="AE15" s="186"/>
+      <c r="Y15" s="199"/>
+      <c r="Z15" s="199"/>
+      <c r="AA15" s="199"/>
+      <c r="AB15" s="199"/>
+      <c r="AC15" s="199"/>
+      <c r="AD15" s="199"/>
+      <c r="AE15" s="199"/>
     </row>
     <row r="16" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="17"/>
       <c r="B16" s="17"/>
-      <c r="C16" s="187" t="s">
+      <c r="C16" s="197" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="187"/>
-      <c r="E16" s="187"/>
-      <c r="F16" s="187"/>
-      <c r="G16" s="187"/>
-      <c r="H16" s="187"/>
-      <c r="I16" s="187"/>
-      <c r="J16" s="187"/>
-      <c r="K16" s="187"/>
-      <c r="L16" s="187"/>
+      <c r="D16" s="197"/>
+      <c r="E16" s="197"/>
+      <c r="F16" s="197"/>
+      <c r="G16" s="197"/>
+      <c r="H16" s="197"/>
+      <c r="I16" s="197"/>
+      <c r="J16" s="197"/>
+      <c r="K16" s="197"/>
+      <c r="L16" s="197"/>
       <c r="M16" s="18"/>
       <c r="N16" s="18"/>
       <c r="O16" s="18"/>
@@ -2763,13 +2733,13 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-      <c r="Y16" s="186"/>
-      <c r="Z16" s="186"/>
-      <c r="AA16" s="186"/>
-      <c r="AB16" s="186"/>
-      <c r="AC16" s="186"/>
-      <c r="AD16" s="186"/>
-      <c r="AE16" s="186"/>
+      <c r="Y16" s="199"/>
+      <c r="Z16" s="199"/>
+      <c r="AA16" s="199"/>
+      <c r="AB16" s="199"/>
+      <c r="AC16" s="199"/>
+      <c r="AD16" s="199"/>
+      <c r="AE16" s="199"/>
     </row>
     <row r="17" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
@@ -3304,18 +3274,18 @@
       <c r="B31" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="C31" s="188"/>
-      <c r="D31" s="188"/>
-      <c r="E31" s="188"/>
-      <c r="F31" s="188"/>
-      <c r="G31" s="188"/>
-      <c r="H31" s="188"/>
-      <c r="I31" s="188"/>
-      <c r="J31" s="188"/>
-      <c r="K31" s="188"/>
-      <c r="L31" s="188"/>
-      <c r="M31" s="188"/>
-      <c r="N31" s="188"/>
+      <c r="C31" s="195"/>
+      <c r="D31" s="195"/>
+      <c r="E31" s="195"/>
+      <c r="F31" s="195"/>
+      <c r="G31" s="195"/>
+      <c r="H31" s="195"/>
+      <c r="I31" s="195"/>
+      <c r="J31" s="195"/>
+      <c r="K31" s="195"/>
+      <c r="L31" s="195"/>
+      <c r="M31" s="195"/>
+      <c r="N31" s="195"/>
       <c r="O31" s="45"/>
       <c r="P31" s="45"/>
       <c r="Q31" s="21"/>
@@ -3339,18 +3309,18 @@
       <c r="B32" s="46" t="s">
         <v>43</v>
       </c>
-      <c r="C32" s="189"/>
-      <c r="D32" s="189"/>
-      <c r="E32" s="189"/>
-      <c r="F32" s="189"/>
-      <c r="G32" s="189"/>
-      <c r="H32" s="189"/>
-      <c r="I32" s="189"/>
-      <c r="J32" s="189"/>
-      <c r="K32" s="189"/>
-      <c r="L32" s="189"/>
-      <c r="M32" s="189"/>
-      <c r="N32" s="189"/>
+      <c r="C32" s="198"/>
+      <c r="D32" s="198"/>
+      <c r="E32" s="198"/>
+      <c r="F32" s="198"/>
+      <c r="G32" s="198"/>
+      <c r="H32" s="198"/>
+      <c r="I32" s="198"/>
+      <c r="J32" s="198"/>
+      <c r="K32" s="198"/>
+      <c r="L32" s="198"/>
+      <c r="M32" s="198"/>
+      <c r="N32" s="198"/>
       <c r="O32" s="2"/>
       <c r="P32" s="47"/>
       <c r="Q32" s="2"/>
@@ -4028,10 +3998,10 @@
       <c r="AE50" s="3"/>
     </row>
     <row r="51" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="190" t="s">
+      <c r="A51" s="193" t="s">
         <v>66</v>
       </c>
-      <c r="B51" s="190"/>
+      <c r="B51" s="193"/>
       <c r="C51" s="60"/>
       <c r="D51" s="61"/>
       <c r="E51" s="62"/>
@@ -4098,10 +4068,10 @@
       <c r="AE52" s="3"/>
     </row>
     <row r="53" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="190" t="s">
+      <c r="A53" s="193" t="s">
         <v>69</v>
       </c>
-      <c r="B53" s="190"/>
+      <c r="B53" s="193"/>
       <c r="C53" s="60"/>
       <c r="D53" s="61"/>
       <c r="E53" s="62"/>
@@ -4168,10 +4138,10 @@
       <c r="AE54" s="3"/>
     </row>
     <row r="55" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="190" t="s">
+      <c r="A55" s="193" t="s">
         <v>71</v>
       </c>
-      <c r="B55" s="190"/>
+      <c r="B55" s="193"/>
       <c r="C55" s="60"/>
       <c r="D55" s="69"/>
       <c r="E55" s="70"/>
@@ -4238,10 +4208,10 @@
       <c r="AE56" s="3"/>
     </row>
     <row r="57" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A57" s="190" t="s">
+      <c r="A57" s="193" t="s">
         <v>74</v>
       </c>
-      <c r="B57" s="190"/>
+      <c r="B57" s="193"/>
       <c r="C57" s="60"/>
       <c r="D57" s="61"/>
       <c r="E57" s="62"/>
@@ -4308,10 +4278,10 @@
       <c r="AE58" s="3"/>
     </row>
     <row r="59" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="190" t="s">
+      <c r="A59" s="193" t="s">
         <v>76</v>
       </c>
-      <c r="B59" s="190"/>
+      <c r="B59" s="193"/>
       <c r="C59" s="60"/>
       <c r="D59" s="69"/>
       <c r="E59" s="70"/>
@@ -4378,10 +4348,10 @@
       <c r="AE60" s="3"/>
     </row>
     <row r="61" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="190" t="s">
+      <c r="A61" s="193" t="s">
         <v>78</v>
       </c>
-      <c r="B61" s="190"/>
+      <c r="B61" s="193"/>
       <c r="C61" s="60"/>
       <c r="D61" s="69"/>
       <c r="E61" s="70"/>
@@ -4483,18 +4453,18 @@
     <row r="64" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="17"/>
       <c r="B64" s="17"/>
-      <c r="C64" s="187" t="s">
+      <c r="C64" s="197" t="s">
         <v>80</v>
       </c>
-      <c r="D64" s="187"/>
-      <c r="E64" s="187"/>
-      <c r="F64" s="187"/>
-      <c r="G64" s="187"/>
-      <c r="H64" s="187"/>
-      <c r="I64" s="187"/>
-      <c r="J64" s="187"/>
-      <c r="K64" s="187"/>
-      <c r="L64" s="187"/>
+      <c r="D64" s="197"/>
+      <c r="E64" s="197"/>
+      <c r="F64" s="197"/>
+      <c r="G64" s="197"/>
+      <c r="H64" s="197"/>
+      <c r="I64" s="197"/>
+      <c r="J64" s="197"/>
+      <c r="K64" s="197"/>
+      <c r="L64" s="197"/>
       <c r="M64" s="17"/>
       <c r="N64" s="17"/>
       <c r="O64" s="17"/>
@@ -4551,23 +4521,23 @@
     <row r="66" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
-      <c r="C66" s="188"/>
-      <c r="D66" s="188"/>
-      <c r="E66" s="188"/>
-      <c r="F66" s="188"/>
-      <c r="G66" s="188"/>
-      <c r="H66" s="188"/>
-      <c r="I66" s="188"/>
-      <c r="J66" s="188"/>
-      <c r="K66" s="188"/>
-      <c r="L66" s="188"/>
-      <c r="M66" s="188"/>
-      <c r="N66" s="188"/>
+      <c r="C66" s="195"/>
+      <c r="D66" s="195"/>
+      <c r="E66" s="195"/>
+      <c r="F66" s="195"/>
+      <c r="G66" s="195"/>
+      <c r="H66" s="195"/>
+      <c r="I66" s="195"/>
+      <c r="J66" s="195"/>
+      <c r="K66" s="195"/>
+      <c r="L66" s="195"/>
+      <c r="M66" s="195"/>
+      <c r="N66" s="195"/>
       <c r="O66" s="2"/>
-      <c r="P66" s="191" t="s">
+      <c r="P66" s="196" t="s">
         <v>81</v>
       </c>
-      <c r="Q66" s="191"/>
+      <c r="Q66" s="196"/>
       <c r="R66" s="3"/>
       <c r="S66" s="3"/>
       <c r="T66" s="3"/>
@@ -5490,18 +5460,18 @@
     <row r="92" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="17"/>
       <c r="B92" s="17"/>
-      <c r="C92" s="187" t="s">
+      <c r="C92" s="197" t="s">
         <v>86</v>
       </c>
-      <c r="D92" s="187"/>
-      <c r="E92" s="187"/>
-      <c r="F92" s="187"/>
-      <c r="G92" s="187"/>
-      <c r="H92" s="187"/>
-      <c r="I92" s="187"/>
-      <c r="J92" s="187"/>
-      <c r="K92" s="187"/>
-      <c r="L92" s="187"/>
+      <c r="D92" s="197"/>
+      <c r="E92" s="197"/>
+      <c r="F92" s="197"/>
+      <c r="G92" s="197"/>
+      <c r="H92" s="197"/>
+      <c r="I92" s="197"/>
+      <c r="J92" s="197"/>
+      <c r="K92" s="197"/>
+      <c r="L92" s="197"/>
       <c r="M92" s="17"/>
       <c r="N92" s="17"/>
       <c r="O92" s="17"/>
@@ -5558,23 +5528,23 @@
     <row r="94" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="2"/>
       <c r="B94" s="2"/>
-      <c r="C94" s="188"/>
-      <c r="D94" s="188"/>
-      <c r="E94" s="188"/>
-      <c r="F94" s="188"/>
-      <c r="G94" s="188"/>
-      <c r="H94" s="188"/>
-      <c r="I94" s="188"/>
-      <c r="J94" s="188"/>
-      <c r="K94" s="188"/>
-      <c r="L94" s="188"/>
-      <c r="M94" s="188"/>
-      <c r="N94" s="188"/>
+      <c r="C94" s="195"/>
+      <c r="D94" s="195"/>
+      <c r="E94" s="195"/>
+      <c r="F94" s="195"/>
+      <c r="G94" s="195"/>
+      <c r="H94" s="195"/>
+      <c r="I94" s="195"/>
+      <c r="J94" s="195"/>
+      <c r="K94" s="195"/>
+      <c r="L94" s="195"/>
+      <c r="M94" s="195"/>
+      <c r="N94" s="195"/>
       <c r="O94" s="2"/>
-      <c r="P94" s="191" t="s">
+      <c r="P94" s="196" t="s">
         <v>81</v>
       </c>
-      <c r="Q94" s="191"/>
+      <c r="Q94" s="196"/>
       <c r="R94" s="3"/>
       <c r="S94" s="3"/>
       <c r="T94" s="3"/>
@@ -6423,10 +6393,10 @@
       <c r="AE116" s="3"/>
     </row>
     <row r="117" spans="1:31" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="190" t="s">
+      <c r="A117" s="193" t="s">
         <v>66</v>
       </c>
-      <c r="B117" s="190"/>
+      <c r="B117" s="193"/>
       <c r="C117" s="126"/>
       <c r="D117" s="106" t="s">
         <v>67</v>
@@ -6521,10 +6491,10 @@
       <c r="AE118" s="3"/>
     </row>
     <row r="119" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="190" t="s">
+      <c r="A119" s="193" t="s">
         <v>69</v>
       </c>
-      <c r="B119" s="190"/>
+      <c r="B119" s="193"/>
       <c r="C119" s="65"/>
       <c r="D119" s="106">
         <v>4320</v>
@@ -6619,10 +6589,10 @@
       <c r="AE120" s="3"/>
     </row>
     <row r="121" spans="1:31" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="190" t="s">
+      <c r="A121" s="193" t="s">
         <v>73</v>
       </c>
-      <c r="B121" s="190"/>
+      <c r="B121" s="193"/>
       <c r="C121" s="65"/>
       <c r="D121" s="106" t="s">
         <v>67</v>
@@ -6717,10 +6687,10 @@
       <c r="AE122" s="3"/>
     </row>
     <row r="123" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="190" t="s">
+      <c r="A123" s="193" t="s">
         <v>77</v>
       </c>
-      <c r="B123" s="190"/>
+      <c r="B123" s="193"/>
       <c r="C123" s="65"/>
       <c r="D123" s="128" t="s">
         <v>72</v>
@@ -7377,14 +7347,14 @@
       <c r="AE138" s="3"/>
     </row>
     <row r="139" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="192" t="s">
+      <c r="A139" s="194" t="s">
         <v>92</v>
       </c>
-      <c r="B139" s="192"/>
-      <c r="C139" s="192"/>
-      <c r="D139" s="192"/>
-      <c r="E139" s="192"/>
-      <c r="F139" s="192"/>
+      <c r="B139" s="194"/>
+      <c r="C139" s="194"/>
+      <c r="D139" s="194"/>
+      <c r="E139" s="194"/>
+      <c r="F139" s="194"/>
       <c r="G139" s="6"/>
       <c r="H139" s="144"/>
       <c r="I139" s="144"/>
@@ -7412,14 +7382,14 @@
       <c r="AE139" s="3"/>
     </row>
     <row r="140" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="195" t="s">
+      <c r="A140" s="191" t="s">
         <v>93</v>
       </c>
-      <c r="B140" s="195"/>
-      <c r="C140" s="195"/>
-      <c r="D140" s="195"/>
-      <c r="E140" s="195"/>
-      <c r="F140" s="195"/>
+      <c r="B140" s="191"/>
+      <c r="C140" s="191"/>
+      <c r="D140" s="191"/>
+      <c r="E140" s="191"/>
+      <c r="F140" s="191"/>
       <c r="G140" s="145"/>
       <c r="H140" s="144"/>
       <c r="I140" s="144"/>
@@ -7447,14 +7417,14 @@
       <c r="AE140" s="3"/>
     </row>
     <row r="141" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="195" t="s">
+      <c r="A141" s="191" t="s">
         <v>94</v>
       </c>
-      <c r="B141" s="195"/>
-      <c r="C141" s="195"/>
-      <c r="D141" s="195"/>
-      <c r="E141" s="195"/>
-      <c r="F141" s="195"/>
+      <c r="B141" s="191"/>
+      <c r="C141" s="191"/>
+      <c r="D141" s="191"/>
+      <c r="E141" s="191"/>
+      <c r="F141" s="191"/>
       <c r="G141" s="6"/>
       <c r="H141" s="144"/>
       <c r="I141" s="144"/>
@@ -7482,14 +7452,14 @@
       <c r="AE141" s="3"/>
     </row>
     <row r="142" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="196" t="s">
+      <c r="A142" s="192" t="s">
         <v>95</v>
       </c>
-      <c r="B142" s="196"/>
-      <c r="C142" s="196"/>
-      <c r="D142" s="196"/>
-      <c r="E142" s="196"/>
-      <c r="F142" s="196"/>
+      <c r="B142" s="192"/>
+      <c r="C142" s="192"/>
+      <c r="D142" s="192"/>
+      <c r="E142" s="192"/>
+      <c r="F142" s="192"/>
       <c r="G142" s="6"/>
       <c r="H142" s="146"/>
       <c r="I142" s="146"/>
@@ -7517,14 +7487,14 @@
       <c r="AE142" s="3"/>
     </row>
     <row r="143" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="195" t="s">
+      <c r="A143" s="191" t="s">
         <v>96</v>
       </c>
-      <c r="B143" s="195"/>
-      <c r="C143" s="195"/>
-      <c r="D143" s="195"/>
-      <c r="E143" s="195"/>
-      <c r="F143" s="195"/>
+      <c r="B143" s="191"/>
+      <c r="C143" s="191"/>
+      <c r="D143" s="191"/>
+      <c r="E143" s="191"/>
+      <c r="F143" s="191"/>
       <c r="G143" s="145"/>
       <c r="H143" s="146"/>
       <c r="I143" s="146"/>
@@ -7533,11 +7503,11 @@
       <c r="L143" s="2"/>
       <c r="M143" s="2"/>
       <c r="N143" s="2"/>
-      <c r="O143" s="197" t="s">
+      <c r="O143" s="187" t="s">
         <v>97</v>
       </c>
-      <c r="P143" s="197"/>
-      <c r="Q143" s="197"/>
+      <c r="P143" s="187"/>
+      <c r="Q143" s="187"/>
       <c r="R143" s="3"/>
       <c r="S143" s="3"/>
       <c r="T143" s="3"/>
@@ -7568,11 +7538,11 @@
       <c r="L144" s="2"/>
       <c r="M144" s="2"/>
       <c r="N144" s="2"/>
-      <c r="O144" s="197" t="s">
+      <c r="O144" s="187" t="s">
         <v>98</v>
       </c>
-      <c r="P144" s="197"/>
-      <c r="Q144" s="197"/>
+      <c r="P144" s="187"/>
+      <c r="Q144" s="187"/>
       <c r="R144" s="3"/>
       <c r="S144" s="3"/>
       <c r="T144" s="3"/>
@@ -7607,11 +7577,11 @@
       <c r="L145" s="151"/>
       <c r="M145" s="2"/>
       <c r="N145" s="2"/>
-      <c r="O145" s="197" t="s">
+      <c r="O145" s="187" t="s">
         <v>101</v>
       </c>
-      <c r="P145" s="197"/>
-      <c r="Q145" s="197"/>
+      <c r="P145" s="187"/>
+      <c r="Q145" s="187"/>
       <c r="R145" s="3"/>
       <c r="S145" s="3"/>
       <c r="T145" s="3"/>
@@ -7683,9 +7653,9 @@
       <c r="L147" s="2"/>
       <c r="M147" s="2"/>
       <c r="N147" s="2"/>
-      <c r="O147" s="200"/>
-      <c r="P147" s="200"/>
-      <c r="Q147" s="200"/>
+      <c r="O147" s="188"/>
+      <c r="P147" s="188"/>
+      <c r="Q147" s="188"/>
       <c r="R147" s="3"/>
       <c r="S147" s="3"/>
       <c r="T147" s="3"/>
@@ -7720,9 +7690,9 @@
       <c r="L148" s="2"/>
       <c r="M148" s="2"/>
       <c r="N148" s="2"/>
-      <c r="O148" s="199"/>
-      <c r="P148" s="199"/>
-      <c r="Q148" s="199"/>
+      <c r="O148" s="186"/>
+      <c r="P148" s="186"/>
+      <c r="Q148" s="186"/>
       <c r="R148" s="3"/>
       <c r="S148" s="3"/>
       <c r="T148" s="3"/>
@@ -7746,11 +7716,11 @@
         <v>108</v>
       </c>
       <c r="C149" s="155"/>
-      <c r="D149" s="193" t="s">
+      <c r="D149" s="189" t="s">
         <v>109</v>
       </c>
-      <c r="E149" s="193"/>
-      <c r="F149" s="193"/>
+      <c r="E149" s="189"/>
+      <c r="F149" s="189"/>
       <c r="G149" s="2"/>
       <c r="H149" s="2"/>
       <c r="I149" s="2"/>
@@ -7759,11 +7729,11 @@
       <c r="L149" s="2"/>
       <c r="M149" s="2"/>
       <c r="N149" s="2"/>
-      <c r="O149" s="194" t="s">
+      <c r="O149" s="190" t="s">
         <v>110</v>
       </c>
-      <c r="P149" s="194"/>
-      <c r="Q149" s="194"/>
+      <c r="P149" s="190"/>
+      <c r="Q149" s="190"/>
       <c r="R149" s="3"/>
       <c r="S149" s="3"/>
       <c r="T149" s="3"/>
@@ -7798,9 +7768,9 @@
       <c r="L150" s="2"/>
       <c r="M150" s="2"/>
       <c r="N150" s="2"/>
-      <c r="O150" s="198"/>
-      <c r="P150" s="198"/>
-      <c r="Q150" s="198"/>
+      <c r="O150" s="185"/>
+      <c r="P150" s="185"/>
+      <c r="Q150" s="185"/>
       <c r="R150" s="3"/>
       <c r="S150" s="3"/>
       <c r="T150" s="3"/>
@@ -7835,9 +7805,9 @@
       <c r="L151" s="2"/>
       <c r="M151" s="2"/>
       <c r="N151" s="2"/>
-      <c r="O151" s="199"/>
-      <c r="P151" s="199"/>
-      <c r="Q151" s="199"/>
+      <c r="O151" s="186"/>
+      <c r="P151" s="186"/>
+      <c r="Q151" s="186"/>
       <c r="R151" s="3"/>
       <c r="S151" s="3"/>
       <c r="T151" s="3"/>
@@ -35952,46 +35922,17 @@
     </row>
   </sheetData>
   <mergeCells count="63">
-    <mergeCell ref="O150:Q150"/>
-    <mergeCell ref="O151:Q151"/>
-    <mergeCell ref="O144:Q144"/>
-    <mergeCell ref="O145:Q145"/>
-    <mergeCell ref="O147:Q147"/>
-    <mergeCell ref="O148:Q148"/>
-    <mergeCell ref="D149:F149"/>
-    <mergeCell ref="O149:Q149"/>
-    <mergeCell ref="A140:F140"/>
-    <mergeCell ref="A141:F141"/>
-    <mergeCell ref="A142:F142"/>
-    <mergeCell ref="A143:F143"/>
-    <mergeCell ref="O143:Q143"/>
-    <mergeCell ref="A117:B117"/>
-    <mergeCell ref="A119:B119"/>
-    <mergeCell ref="A121:B121"/>
-    <mergeCell ref="A123:B123"/>
-    <mergeCell ref="A139:F139"/>
-    <mergeCell ref="M66:N66"/>
-    <mergeCell ref="P66:Q66"/>
-    <mergeCell ref="C92:L92"/>
-    <mergeCell ref="C94:D94"/>
-    <mergeCell ref="E94:F94"/>
-    <mergeCell ref="G94:H94"/>
-    <mergeCell ref="I94:J94"/>
-    <mergeCell ref="K94:L94"/>
-    <mergeCell ref="M94:N94"/>
-    <mergeCell ref="P94:Q94"/>
-    <mergeCell ref="A61:B61"/>
-    <mergeCell ref="C64:L64"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="E66:F66"/>
-    <mergeCell ref="G66:H66"/>
-    <mergeCell ref="I66:J66"/>
-    <mergeCell ref="K66:L66"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="A7:Q7"/>
+    <mergeCell ref="A8:Q8"/>
+    <mergeCell ref="A9:L9"/>
+    <mergeCell ref="Y14:Y16"/>
+    <mergeCell ref="Z14:Z16"/>
+    <mergeCell ref="C16:L16"/>
+    <mergeCell ref="AA14:AA16"/>
+    <mergeCell ref="AB14:AB16"/>
+    <mergeCell ref="AC14:AC16"/>
+    <mergeCell ref="AD14:AD16"/>
+    <mergeCell ref="AE14:AE16"/>
     <mergeCell ref="M31:N31"/>
     <mergeCell ref="C32:D32"/>
     <mergeCell ref="E32:F32"/>
@@ -36004,17 +35945,46 @@
     <mergeCell ref="G31:H31"/>
     <mergeCell ref="I31:J31"/>
     <mergeCell ref="K31:L31"/>
-    <mergeCell ref="AA14:AA16"/>
-    <mergeCell ref="AB14:AB16"/>
-    <mergeCell ref="AC14:AC16"/>
-    <mergeCell ref="AD14:AD16"/>
-    <mergeCell ref="AE14:AE16"/>
-    <mergeCell ref="A7:Q7"/>
-    <mergeCell ref="A8:Q8"/>
-    <mergeCell ref="A9:L9"/>
-    <mergeCell ref="Y14:Y16"/>
-    <mergeCell ref="Z14:Z16"/>
-    <mergeCell ref="C16:L16"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="C64:L64"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="E66:F66"/>
+    <mergeCell ref="G66:H66"/>
+    <mergeCell ref="I66:J66"/>
+    <mergeCell ref="K66:L66"/>
+    <mergeCell ref="M66:N66"/>
+    <mergeCell ref="P66:Q66"/>
+    <mergeCell ref="C92:L92"/>
+    <mergeCell ref="C94:D94"/>
+    <mergeCell ref="E94:F94"/>
+    <mergeCell ref="G94:H94"/>
+    <mergeCell ref="I94:J94"/>
+    <mergeCell ref="K94:L94"/>
+    <mergeCell ref="M94:N94"/>
+    <mergeCell ref="P94:Q94"/>
+    <mergeCell ref="A117:B117"/>
+    <mergeCell ref="A119:B119"/>
+    <mergeCell ref="A121:B121"/>
+    <mergeCell ref="A123:B123"/>
+    <mergeCell ref="A139:F139"/>
+    <mergeCell ref="D149:F149"/>
+    <mergeCell ref="O149:Q149"/>
+    <mergeCell ref="A140:F140"/>
+    <mergeCell ref="A141:F141"/>
+    <mergeCell ref="A142:F142"/>
+    <mergeCell ref="A143:F143"/>
+    <mergeCell ref="O143:Q143"/>
+    <mergeCell ref="O150:Q150"/>
+    <mergeCell ref="O151:Q151"/>
+    <mergeCell ref="O144:Q144"/>
+    <mergeCell ref="O145:Q145"/>
+    <mergeCell ref="O147:Q147"/>
+    <mergeCell ref="O148:Q148"/>
   </mergeCells>
   <conditionalFormatting sqref="B35">
     <cfRule type="colorScale" priority="2">
@@ -36080,8 +36050,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:F2"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -36122,11 +36092,11 @@
     </row>
     <row r="2" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="172"/>
-      <c r="B2" s="201"/>
-      <c r="C2" s="201"/>
-      <c r="D2" s="201"/>
-      <c r="E2" s="201"/>
-      <c r="F2" s="201"/>
+      <c r="B2" s="202"/>
+      <c r="C2" s="202"/>
+      <c r="D2" s="202"/>
+      <c r="E2" s="202"/>
+      <c r="F2" s="202"/>
       <c r="G2" s="172"/>
       <c r="H2" s="172"/>
       <c r="I2" s="172"/>
@@ -36178,17 +36148,17 @@
     </row>
     <row r="4" spans="1:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="172"/>
-      <c r="B4" s="202" t="s">
+      <c r="B4" s="203" t="s">
         <v>125</v>
       </c>
-      <c r="C4" s="203" t="s">
+      <c r="C4" s="205" t="s">
         <v>126</v>
       </c>
-      <c r="D4" s="204" t="s">
+      <c r="D4" s="207" t="s">
         <v>127</v>
       </c>
-      <c r="E4" s="204"/>
-      <c r="F4" s="205" t="s">
+      <c r="E4" s="207"/>
+      <c r="F4" s="208" t="s">
         <v>128</v>
       </c>
       <c r="G4" s="172"/>
@@ -36214,11 +36184,11 @@
     </row>
     <row r="5" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="172"/>
-      <c r="B5" s="208"/>
-      <c r="C5" s="209"/>
-      <c r="D5" s="210"/>
-      <c r="E5" s="210"/>
-      <c r="F5" s="205"/>
+      <c r="B5" s="204"/>
+      <c r="C5" s="206"/>
+      <c r="D5" s="184"/>
+      <c r="E5" s="184"/>
+      <c r="F5" s="208"/>
       <c r="G5" s="172"/>
       <c r="H5" s="172"/>
       <c r="I5" s="172"/>
@@ -36240,13 +36210,13 @@
       <c r="Y5" s="172"/>
       <c r="Z5" s="172"/>
     </row>
-    <row r="6" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A6" s="172"/>
-      <c r="B6" s="206"/>
-      <c r="C6" s="206"/>
-      <c r="D6" s="207"/>
-      <c r="E6" s="206"/>
-      <c r="F6" s="211"/>
+      <c r="B6" s="209"/>
+      <c r="C6" s="209"/>
+      <c r="D6" s="210"/>
+      <c r="E6" s="209"/>
+      <c r="F6" s="209"/>
       <c r="G6" s="172"/>
       <c r="H6" s="172"/>
       <c r="I6" s="172"/>
@@ -36270,11 +36240,11 @@
     </row>
     <row r="7" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="172"/>
-      <c r="B7" s="206"/>
-      <c r="C7" s="206"/>
-      <c r="D7" s="206"/>
-      <c r="E7" s="206"/>
-      <c r="F7" s="212"/>
+      <c r="B7" s="211"/>
+      <c r="C7" s="211"/>
+      <c r="D7" s="211"/>
+      <c r="E7" s="211"/>
+      <c r="F7" s="211"/>
       <c r="G7" s="172"/>
       <c r="H7" s="172"/>
       <c r="I7" s="172"/>
@@ -36298,11 +36268,11 @@
     </row>
     <row r="8" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="172"/>
-      <c r="B8" s="206"/>
-      <c r="C8" s="206"/>
-      <c r="D8" s="206"/>
-      <c r="E8" s="206"/>
-      <c r="F8" s="212"/>
+      <c r="B8" s="211"/>
+      <c r="C8" s="211"/>
+      <c r="D8" s="211"/>
+      <c r="E8" s="211"/>
+      <c r="F8" s="211"/>
       <c r="G8" s="172"/>
       <c r="H8" s="172"/>
       <c r="I8" s="172"/>
@@ -36326,11 +36296,11 @@
     </row>
     <row r="9" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="172"/>
-      <c r="B9" s="206"/>
-      <c r="C9" s="206"/>
-      <c r="D9" s="206"/>
-      <c r="E9" s="206"/>
-      <c r="F9" s="212"/>
+      <c r="B9" s="211"/>
+      <c r="C9" s="211"/>
+      <c r="D9" s="211"/>
+      <c r="E9" s="211"/>
+      <c r="F9" s="211"/>
       <c r="G9" s="172"/>
       <c r="H9" s="172"/>
       <c r="I9" s="172"/>
@@ -36354,11 +36324,11 @@
     </row>
     <row r="10" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="172"/>
-      <c r="B10" s="206"/>
-      <c r="C10" s="206"/>
-      <c r="D10" s="206"/>
-      <c r="E10" s="206"/>
-      <c r="F10" s="212"/>
+      <c r="B10" s="211"/>
+      <c r="C10" s="211"/>
+      <c r="D10" s="211"/>
+      <c r="E10" s="211"/>
+      <c r="F10" s="211"/>
       <c r="G10" s="172"/>
       <c r="H10" s="172"/>
       <c r="I10" s="172"/>
@@ -36382,11 +36352,11 @@
     </row>
     <row r="11" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="172"/>
-      <c r="B11" s="206"/>
-      <c r="C11" s="206"/>
-      <c r="D11" s="206"/>
-      <c r="E11" s="206"/>
-      <c r="F11" s="212"/>
+      <c r="B11" s="211"/>
+      <c r="C11" s="211"/>
+      <c r="D11" s="211"/>
+      <c r="E11" s="211"/>
+      <c r="F11" s="211"/>
       <c r="G11" s="172"/>
       <c r="H11" s="172"/>
       <c r="I11" s="172"/>
@@ -36410,11 +36380,11 @@
     </row>
     <row r="12" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="172"/>
-      <c r="B12" s="206"/>
-      <c r="C12" s="206"/>
-      <c r="D12" s="206"/>
-      <c r="E12" s="206"/>
-      <c r="F12" s="212"/>
+      <c r="B12" s="211"/>
+      <c r="C12" s="211"/>
+      <c r="D12" s="211"/>
+      <c r="E12" s="211"/>
+      <c r="F12" s="211"/>
       <c r="G12" s="172"/>
       <c r="H12" s="172"/>
       <c r="I12" s="172"/>
@@ -36438,11 +36408,11 @@
     </row>
     <row r="13" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="172"/>
-      <c r="B13" s="206"/>
-      <c r="C13" s="206"/>
-      <c r="D13" s="206"/>
-      <c r="E13" s="206"/>
-      <c r="F13" s="212"/>
+      <c r="B13" s="211"/>
+      <c r="C13" s="211"/>
+      <c r="D13" s="211"/>
+      <c r="E13" s="211"/>
+      <c r="F13" s="211"/>
       <c r="G13" s="172"/>
       <c r="H13" s="172"/>
       <c r="I13" s="172"/>
@@ -36466,11 +36436,11 @@
     </row>
     <row r="14" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="172"/>
-      <c r="B14" s="206"/>
-      <c r="C14" s="206"/>
-      <c r="D14" s="206"/>
-      <c r="E14" s="206"/>
-      <c r="F14" s="212"/>
+      <c r="B14" s="211"/>
+      <c r="C14" s="211"/>
+      <c r="D14" s="211"/>
+      <c r="E14" s="211"/>
+      <c r="F14" s="211"/>
       <c r="G14" s="172"/>
       <c r="H14" s="172"/>
       <c r="I14" s="172"/>
@@ -36494,11 +36464,11 @@
     </row>
     <row r="15" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="172"/>
-      <c r="B15" s="206"/>
-      <c r="C15" s="206"/>
-      <c r="D15" s="206"/>
-      <c r="E15" s="206"/>
-      <c r="F15" s="212"/>
+      <c r="B15" s="211"/>
+      <c r="C15" s="211"/>
+      <c r="D15" s="211"/>
+      <c r="E15" s="211"/>
+      <c r="F15" s="211"/>
       <c r="G15" s="172"/>
       <c r="H15" s="172"/>
       <c r="I15" s="172"/>
@@ -36522,11 +36492,11 @@
     </row>
     <row r="16" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="172"/>
-      <c r="B16" s="206"/>
-      <c r="C16" s="206"/>
-      <c r="D16" s="206"/>
-      <c r="E16" s="206"/>
-      <c r="F16" s="212"/>
+      <c r="B16" s="211"/>
+      <c r="C16" s="211"/>
+      <c r="D16" s="211"/>
+      <c r="E16" s="211"/>
+      <c r="F16" s="211"/>
       <c r="G16" s="172"/>
       <c r="H16" s="172"/>
       <c r="I16" s="172"/>
@@ -36550,11 +36520,11 @@
     </row>
     <row r="17" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="172"/>
-      <c r="B17" s="206"/>
-      <c r="C17" s="206"/>
-      <c r="D17" s="206"/>
-      <c r="E17" s="206"/>
-      <c r="F17" s="212"/>
+      <c r="B17" s="211"/>
+      <c r="C17" s="211"/>
+      <c r="D17" s="211"/>
+      <c r="E17" s="211"/>
+      <c r="F17" s="211"/>
       <c r="G17" s="172"/>
       <c r="H17" s="172"/>
       <c r="I17" s="172"/>
@@ -36578,11 +36548,11 @@
     </row>
     <row r="18" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="172"/>
-      <c r="B18" s="206"/>
-      <c r="C18" s="206"/>
-      <c r="D18" s="206"/>
-      <c r="E18" s="206"/>
-      <c r="F18" s="212"/>
+      <c r="B18" s="211"/>
+      <c r="C18" s="211"/>
+      <c r="D18" s="211"/>
+      <c r="E18" s="211"/>
+      <c r="F18" s="211"/>
       <c r="G18" s="172"/>
       <c r="H18" s="172"/>
       <c r="I18" s="172"/>
@@ -36606,11 +36576,11 @@
     </row>
     <row r="19" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="172"/>
-      <c r="B19" s="206"/>
-      <c r="C19" s="206"/>
-      <c r="D19" s="206"/>
-      <c r="E19" s="206"/>
-      <c r="F19" s="212"/>
+      <c r="B19" s="211"/>
+      <c r="C19" s="211"/>
+      <c r="D19" s="211"/>
+      <c r="E19" s="211"/>
+      <c r="F19" s="211"/>
       <c r="G19" s="172"/>
       <c r="H19" s="172"/>
       <c r="I19" s="172"/>
@@ -36634,11 +36604,11 @@
     </row>
     <row r="20" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="172"/>
-      <c r="B20" s="206"/>
-      <c r="C20" s="206"/>
-      <c r="D20" s="206"/>
-      <c r="E20" s="206"/>
-      <c r="F20" s="212"/>
+      <c r="B20" s="211"/>
+      <c r="C20" s="211"/>
+      <c r="D20" s="211"/>
+      <c r="E20" s="211"/>
+      <c r="F20" s="211"/>
       <c r="G20" s="172"/>
       <c r="H20" s="172"/>
       <c r="I20" s="172"/>
@@ -36662,11 +36632,11 @@
     </row>
     <row r="21" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="172"/>
-      <c r="B21" s="206"/>
-      <c r="C21" s="206"/>
-      <c r="D21" s="206"/>
-      <c r="E21" s="206"/>
-      <c r="F21" s="212"/>
+      <c r="B21" s="211"/>
+      <c r="C21" s="211"/>
+      <c r="D21" s="211"/>
+      <c r="E21" s="211"/>
+      <c r="F21" s="211"/>
       <c r="G21" s="172"/>
       <c r="H21" s="172"/>
       <c r="I21" s="172"/>
@@ -36690,11 +36660,11 @@
     </row>
     <row r="22" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="172"/>
-      <c r="B22" s="206"/>
-      <c r="C22" s="206"/>
-      <c r="D22" s="206"/>
-      <c r="E22" s="206"/>
-      <c r="F22" s="212"/>
+      <c r="B22" s="211"/>
+      <c r="C22" s="211"/>
+      <c r="D22" s="211"/>
+      <c r="E22" s="211"/>
+      <c r="F22" s="211"/>
       <c r="G22" s="172"/>
       <c r="H22" s="172"/>
       <c r="I22" s="172"/>
@@ -36718,11 +36688,11 @@
     </row>
     <row r="23" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="172"/>
-      <c r="B23" s="206"/>
-      <c r="C23" s="206"/>
-      <c r="D23" s="206"/>
-      <c r="E23" s="206"/>
-      <c r="F23" s="213"/>
+      <c r="B23" s="211"/>
+      <c r="C23" s="211"/>
+      <c r="D23" s="211"/>
+      <c r="E23" s="211"/>
+      <c r="F23" s="211"/>
       <c r="G23" s="172"/>
       <c r="H23" s="172"/>
       <c r="I23" s="172"/>
@@ -64101,12 +64071,7 @@
       <c r="Z1000" s="172"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="F6:F23"/>
-    <mergeCell ref="B6:B23"/>
-    <mergeCell ref="C6:C23"/>
-    <mergeCell ref="D6:D23"/>
-    <mergeCell ref="E6:E23"/>
+  <mergeCells count="5">
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="C4:C5"/>
